--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -701,17 +701,18 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Knärot
+Gul taggsvamp
 Skirmossa
 Havstulpanlav
 Korallblylav</t>
@@ -756,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2097,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2154,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2211,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2268,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2325,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2439,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2496,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2553,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2610,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2667,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2724,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2781,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2838,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2895,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2952,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3066,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3123,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3180,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3237,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3294,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3351,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3921,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3978,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4563,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4620,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4677,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4791,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4848,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6159,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6216,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6273,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6330,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6387,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6444,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6501,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6558,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6615,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6672,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6729,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6786,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6843,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6900,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6957,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7014,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7071,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7128,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7185,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7242,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7299,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7356,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7413,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7470,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7527,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7584,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7641,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7698,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7755,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7812,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7869,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7926,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7983,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8045,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8102,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8159,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8216,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8273,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8330,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8387,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8444,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8501,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8558,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8615,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8672,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8729,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8786,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8843,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8900,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8957,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9014,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9076,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9138,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9195,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9252,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9309,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9366,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9423,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9480,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9537,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9594,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9651,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9708,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9765,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9822,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9879,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9936,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9993,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10050,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10107,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10164,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10221,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10278,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10335,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10392,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10449,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10506,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10563,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10620,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10677,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10734,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10791,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10848,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10905,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10962,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11019,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11076,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11133,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11190,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11247,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11304,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11361,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11418,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11475,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11532,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11589,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11646,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11703,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11760,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11817,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11874,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11931,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11988,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12045,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12102,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12159,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12216,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12273,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12330,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12563,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12620,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12682,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12739,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12796,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13423,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13656,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13713,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13770,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13827,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13884,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13941,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13998,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14055,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14112,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14169,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14226,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14283,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14340,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14397,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14454,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14511,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14568,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14625,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14682,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14739,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14796,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14853,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14910,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14967,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15024,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15081,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15138,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15195,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15252,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15309,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15366,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15428,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15490,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15547,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15604,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15661,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15718,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15775,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15832,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15889,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15946,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16003,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16060,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16117,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16174,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16231,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16288,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16345,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16402,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16459,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16516,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16573,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16630,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16687,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16744,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16801,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16858,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16915,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16972,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17029,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17086,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17148,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17205,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17262,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17319,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17376,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17433,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17490,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17547,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17604,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17661,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17718,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17775,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17832,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17889,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17946,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18003,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18060,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18117,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18174,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18231,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18288,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18345,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18402,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18459,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18516,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18573,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18630,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18687,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18744,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18801,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18858,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18915,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -701,18 +701,17 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Knärot
-Gul taggsvamp
 Skirmossa
 Havstulpanlav
 Korallblylav</t>
@@ -757,7 +756,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +843,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +929,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1015,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1100,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1185,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1242,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1299,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1356,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1413,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1470,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1527,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1584,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1641,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1698,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1812,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1869,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1926,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1983,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2040,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2097,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2154,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2211,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2268,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2325,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2382,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2439,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2496,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2553,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2610,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2667,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2724,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2781,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2838,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2895,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2952,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3009,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3066,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3123,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3180,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3237,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3294,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3351,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3408,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3465,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3522,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3579,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3636,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3693,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3750,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3807,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3864,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3921,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3978,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4040,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4102,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4159,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4216,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4273,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4330,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4387,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4444,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4501,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4563,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4620,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4677,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4734,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4791,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4848,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4905,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4962,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5019,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5076,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5133,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5190,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5247,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5304,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5361,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5418,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5475,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5532,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5589,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5646,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5703,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5760,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5817,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5874,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5931,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5988,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6045,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6102,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6159,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6216,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6273,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6330,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6387,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6444,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6501,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6558,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6615,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6672,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6729,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6786,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6843,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6900,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6957,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7014,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7071,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7128,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7185,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7242,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7299,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7356,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7413,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7470,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7527,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7584,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7641,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7698,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7755,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7812,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7869,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7926,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7983,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8045,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8159,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8216,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8273,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8330,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8387,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8444,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8501,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8558,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8615,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8672,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8729,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8786,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8843,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8900,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8957,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9014,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9076,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9138,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9195,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9252,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9309,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9366,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9423,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9480,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9537,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9594,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9651,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9708,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9765,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9822,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9879,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9936,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9993,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10050,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10107,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10164,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10221,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10278,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10335,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10392,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10449,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10563,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10620,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10677,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10734,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10791,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10848,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10905,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10962,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11019,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11076,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11133,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11190,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11247,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11304,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11361,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11418,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11475,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11532,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11589,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11646,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11703,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11760,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11817,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11874,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11931,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11988,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12045,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12102,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12159,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12216,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12273,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12330,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12387,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12444,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12501,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12563,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12620,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12682,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12739,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12796,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12853,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12910,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12967,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13024,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13081,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13138,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13195,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13252,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13309,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13366,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13423,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13485,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13542,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13599,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13656,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13713,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13770,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13827,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13884,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13941,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13998,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14055,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14112,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14169,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14226,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14283,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14340,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14397,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14454,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14511,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14568,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14625,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14682,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14739,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14796,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14853,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14910,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14967,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15024,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15081,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15138,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15195,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15252,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15309,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15366,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15428,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15490,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15547,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15604,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15661,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15718,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15775,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15832,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15889,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15946,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16003,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16060,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16117,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16174,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16231,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16288,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16345,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16402,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16459,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16516,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16573,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16630,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16687,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16744,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16801,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16858,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16915,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16972,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17029,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17086,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17148,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17205,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17262,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17319,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17376,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17433,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17490,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17547,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17604,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17661,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17718,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17775,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17832,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17889,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17946,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18003,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18060,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18117,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18174,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18231,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18288,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18345,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18402,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18459,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18516,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18573,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18630,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18687,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18744,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18801,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18858,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18915,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11304,7 +11304,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11361,7 +11361,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14112,7 +14112,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16801,7 +16801,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18573,7 +18573,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -701,17 +701,18 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Knärot
+Gul taggsvamp
 Skirmossa
 Havstulpanlav
 Korallblylav</t>
@@ -756,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -843,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1299,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1356,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1413,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1470,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1527,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1584,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1641,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1698,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1755,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1812,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1869,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1926,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1983,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2040,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2097,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2154,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2211,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2268,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2325,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2382,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2439,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2496,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2553,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2610,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2667,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2724,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2781,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2838,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2895,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2952,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3009,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3066,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3123,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3180,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3237,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3294,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3351,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3408,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3465,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3522,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3579,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3636,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3693,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3750,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3807,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3864,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3921,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3978,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4040,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4102,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4159,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4216,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4273,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4330,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4387,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4444,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4501,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4563,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4620,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4677,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4734,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4791,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4848,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4905,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4962,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5019,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5076,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5133,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5190,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5247,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5304,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5361,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5418,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5475,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5532,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5646,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5703,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5760,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5817,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5874,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5931,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5988,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6045,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6102,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6159,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6216,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6273,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6330,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6387,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6444,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6501,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6558,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6615,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6672,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6729,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6786,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6843,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6900,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6957,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7014,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7071,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7128,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7185,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7242,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7299,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7356,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7413,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7470,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7527,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7584,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7641,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7698,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7755,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7812,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7869,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7926,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7983,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8045,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8102,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8159,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8216,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8273,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8330,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8387,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8444,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8501,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8558,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8615,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8672,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8729,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8786,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8843,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8900,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8957,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9014,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9076,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9138,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9195,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9252,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9309,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9366,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9423,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9480,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9537,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9594,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9651,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9708,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9765,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9822,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9879,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9936,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9993,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10050,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10107,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10164,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10221,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10278,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10335,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10392,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10449,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10506,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10563,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10620,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10677,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10734,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10791,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10848,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10905,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10962,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11019,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11076,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11133,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11190,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11247,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11304,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11361,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11418,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11475,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11532,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11589,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11646,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11703,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11760,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11817,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11874,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11931,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11988,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12045,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12102,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12159,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12216,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12273,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12330,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12387,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12444,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12501,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12563,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12620,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12682,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12739,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12796,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12853,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12910,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12967,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13024,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13081,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13138,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13195,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13252,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13309,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13366,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13423,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13485,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13542,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13599,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13656,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13713,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13770,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13827,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13884,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13941,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13998,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14055,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14112,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14169,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14226,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14283,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14340,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14397,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14454,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14511,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14568,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14625,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14682,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14739,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14796,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14853,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14910,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14967,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15024,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15081,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15138,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15195,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15252,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15309,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15366,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15428,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15490,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15547,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15604,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15661,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15718,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15775,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15832,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15889,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15946,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16003,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16060,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16117,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16174,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16231,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16288,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16345,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16402,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16459,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16516,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16573,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16630,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16687,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16744,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16801,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16858,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16915,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16972,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17029,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17086,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17148,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17205,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17262,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17319,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17376,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17433,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17490,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17547,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17604,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17661,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17718,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17775,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17832,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17889,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17946,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18003,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18060,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18117,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18174,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18231,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18288,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18345,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18402,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18459,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18516,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18573,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18630,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18687,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18744,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18801,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18858,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18915,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 44561-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 44561-2021.xlsx", "A 44561-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 44561-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 44561-2021.png", "A 44561-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 44561-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 44561-2021.docx", "A 44561-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 44561-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 44561-2021.docx", "A 44561-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 44561-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 44561-2021.docx", "A 44561-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 44561-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 44561-2021.docx", "A 44561-2021")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,31 +719,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 33191-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 33191-2022.xlsx", "A 33191-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 33191-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 33191-2022.png", "A 33191-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/knärot/A 33191-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/knärot/A 33191-2022.png", "A 33191-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 33191-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 33191-2022.docx", "A 33191-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 33191-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 33191-2022.docx", "A 33191-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 33191-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 33191-2022.docx", "A 33191-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 33191-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 33191-2022.docx", "A 33191-2022")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,27 +810,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 30913-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 30913-2019.xlsx", "A 30913-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 30913-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 30913-2019.png", "A 30913-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 30913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 30913-2019.docx", "A 30913-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 30913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 30913-2019.docx", "A 30913-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 30913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 30913-2019.docx", "A 30913-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 30913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 30913-2019.docx", "A 30913-2019")</f>
         <v/>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -896,27 +896,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 44564-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 44564-2021.xlsx", "A 44564-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 44564-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 44564-2021.png", "A 44564-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 44564-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 44564-2021.docx", "A 44564-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 44564-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 44564-2021.docx", "A 44564-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 44564-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 44564-2021.docx", "A 44564-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 44564-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 44564-2021.docx", "A 44564-2021")</f>
         <v/>
       </c>
     </row>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,27 +982,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 38498-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 38498-2022.xlsx", "A 38498-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 38498-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 38498-2022.png", "A 38498-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 38498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 38498-2022.docx", "A 38498-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 38498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 38498-2022.docx", "A 38498-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 38498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 38498-2022.docx", "A 38498-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 38498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 38498-2022.docx", "A 38498-2022")</f>
         <v/>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1067,27 +1067,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 49406-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 49406-2018.xlsx", "A 49406-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 49406-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 49406-2018.png", "A 49406-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 49406-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 49406-2018.docx", "A 49406-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 49406-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 49406-2018.docx", "A 49406-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 49406-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 49406-2018.docx", "A 49406-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 49406-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 49406-2018.docx", "A 49406-2018")</f>
         <v/>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,27 +1152,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 12851-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/artfynd/A 12851-2020.xlsx", "A 12851-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 12851-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/kartor/A 12851-2020.png", "A 12851-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 12851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomål/A 12851-2020.docx", "A 12851-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 12851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/klagomålsmail/A 12851-2020.docx", "A 12851-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 12851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsyn/A 12851-2020.docx", "A 12851-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 12851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FARGELANDA/tillsynsmail/A 12851-2020.docx", "A 12851-2020")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>

--- a/Översikt FÄRGELANDA.xlsx
+++ b/Översikt FÄRGELANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44435</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>44785</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>43636</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44435</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44813</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>43375</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>43899</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>43383</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>43390</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>43391</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>43403</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43403</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
         <v>43404</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>43416</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43418</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43423</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>43426</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>43434</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>43437</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>43442</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43451</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>43451</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>43451</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>43452</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>43471</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         <v>43472</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>43474</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>43479</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>43479</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>43479</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>43479</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>43480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>43481</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>43488</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>43488</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43488</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>43488</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>43493</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>43494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>43495</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>43496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43503</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>43510</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43511</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>43516</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43524</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43526</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43531</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43532</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43535</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43537</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>43549</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43549</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>43549</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43549</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43552</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>43557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         <v>43559</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         <v>43566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         <v>43579</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>43599</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>43608</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         <v>43609</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
         <v>43613</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5704,7 +5704,7 @@
         <v>43613</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5761,7 +5761,7 @@
         <v>43616</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>43618</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         <v>43620</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         <v>43621</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>43629</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>43636</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>43640</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>43649</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>43651</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43662</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43679</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>43684</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>43686</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>43691</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>43724</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>43733</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43748</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43760</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43765</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43768</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43769</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43769</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43769</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43774</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>43781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43788</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>43793</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43796</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43796</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43810</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43810</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43811</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43858</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>43858</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43858</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43878</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43879</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43881</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8274,7 +8274,7 @@
         <v>43884</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>43894</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43910</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>43914</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
         <v>43915</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>43916</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8673,7 +8673,7 @@
         <v>43924</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>43925</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43925</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43938</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43942</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43949</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43962</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43962</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>43979</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>43985</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44004</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>44006</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>44006</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44006</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>44013</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44013</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44016</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44019</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44032</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44046</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44046</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>44053</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44078</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>44084</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>44088</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>44088</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>44097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>44109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44112</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>44127</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44132</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>44138</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>44145</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44167</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10906,7 +10906,7 @@
         <v>44169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         <v>44169</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>44172</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11077,7 +11077,7 @@
         <v>44172</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         <v>44188</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44188</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44188</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44202</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44215</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44215</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44216</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44224</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>44224</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>44225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44225</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>44228</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11989,7 +11989,7 @@
         <v>44231</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>44235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>44239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44239</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44242</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44242</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>44242</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44256</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>44258</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>44263</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44266</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>44267</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44274</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44279</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44281</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>44293</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44299</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44306</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>44327</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44357</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>44362</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>44365</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>44383</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>44385</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44387</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44431</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>44439</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>44441</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>44445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>44446</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44446</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>44449</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>44452</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44453</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>44465</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>44470</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>44475</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44476</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>44484</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>44488</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44490</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44501</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44504</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>44518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44522</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>44525</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>44529</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44546</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14797,7 +14797,7 @@
         <v>44557</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14854,7 +14854,7 @@
         <v>44566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14911,7 +14911,7 @@
         <v>44571</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
         <v>44572</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>44574</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>44578</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>44592</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15196,7 +15196,7 @@
         <v>44595</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>44595</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44600</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         <v>44609</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44609</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44636</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>44638</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15605,7 +15605,7 @@
         <v>44658</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44672</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44684</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44686</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44706</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>44750</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>44768</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>44810</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44810</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44820</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>44841</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>44853</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16289,7 +16289,7 @@
         <v>44872</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16346,7 +16346,7 @@
         <v>44873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>44879</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>44901</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>44916</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16631,7 +16631,7 @@
         <v>44918</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16688,7 +16688,7 @@
         <v>44928</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16745,7 +16745,7 @@
         <v>44928</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44935</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>44939</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>44977</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>44992</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44993</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45033</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>45034</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>45034</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>45034</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45034</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>45034</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17662,7 +17662,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17719,7 +17719,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>45049</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>45049</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17890,7 +17890,7 @@
         <v>45049</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         <v>45049</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45062</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45062</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>45062</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>45062</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45063</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45071</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>45075</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18403,7 +18403,7 @@
         <v>45078</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45078</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18517,7 +18517,7 @@
         <v>45084</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         <v>45086</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45091</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45104</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>45107</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45153</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
